--- a/screenshots/Table of Contents.xlsx
+++ b/screenshots/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Downloads\GUI\IEEE-754-Decimal-64-floating-point-converter\screenshots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA0ADF-3AAF-4727-B149-0BAACD20204F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92433449-E11E-44A4-9B71-E8A9F0E3A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53376021-E96D-4F88-848B-983534FB4A34}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{53376021-E96D-4F88-848B-983534FB4A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Case 1</t>
   </si>
@@ -171,15 +171,6 @@
   </si>
   <si>
     <t>1A x 10 ^ 0</t>
-  </si>
-  <si>
-    <t>Case 27</t>
-  </si>
-  <si>
-    <t>_ x 10 ^ _</t>
-  </si>
-  <si>
-    <t>_ Symbolizes no data or blank spaces</t>
   </si>
 </sst>
 </file>
@@ -558,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26854A70-A13C-47B1-A8BF-3F7858D7CFA5}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,17 +814,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
